--- a/output/output_file.xlsx
+++ b/output/output_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2880" yWindow="2595" windowWidth="21600" windowHeight="11355" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4020" yWindow="4245" windowWidth="21600" windowHeight="11355" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
@@ -430,7 +430,7 @@
     <col width="15.28515625" customWidth="1" min="3" max="3"/>
     <col width="22.42578125" customWidth="1" min="4" max="4"/>
     <col width="23.42578125" customWidth="1" min="5" max="5"/>
-    <col width="14.28515625" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
     <col width="15.7109375" customWidth="1" min="7" max="7"/>
     <col width="17.5703125" customWidth="1" style="6" min="8" max="8"/>
     <col width="8.28515625" customWidth="1" min="9" max="9"/>
@@ -532,6 +532,40 @@
       <c r="N2" s="1" t="n"/>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20220203131101</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wystawiona</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Julia Kowalska</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gdańsk ul. Długa 2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dostarczona</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Opłacone</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>Do zapłaty</t>
@@ -540,6 +574,40 @@
       <c r="N3" s="1" t="n"/>
     </row>
     <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20220203131102</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wystawiona</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Anna Kwiatkowska</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gdańsk ul. Długa 3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dostarczona</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Opłacone</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>Do zwrotu</t>
@@ -548,12 +616,82 @@
       <c r="N4" s="1" t="n"/>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20220203131104</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wystawiona</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jakub Maciejewski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gdańsk ul. Długa 4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dostarczona</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nieopłacone</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>96</v>
+      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Zysk</t>
         </is>
       </c>
       <c r="N5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20220203131105</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wystawiona</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Karol Zieliński</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gdańsk ul. Długa 5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Niedostarczona</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nieopłacona</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
